--- a/standardScaler/standardScaler.xlsx
+++ b/standardScaler/standardScaler.xlsx
@@ -483,7 +483,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K2">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,7 +518,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K3">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,7 +553,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K4">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,7 +588,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K5">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,7 +623,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K6">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,7 +658,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K7">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,7 +693,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K8">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,7 +728,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K9">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +763,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K10">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +798,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K11">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +833,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K12">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,7 +868,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K13">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,7 +903,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K14">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,7 +938,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K15">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,7 +973,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K16">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,7 +1008,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K17">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,7 +1043,7 @@
         <v>4.351956320784402</v>
       </c>
       <c r="K18">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,7 +1078,7 @@
         <v>4.351956320784402</v>
       </c>
       <c r="K19">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,7 +1113,7 @@
         <v>4.351956320784402</v>
       </c>
       <c r="K20">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,7 +1148,7 @@
         <v>4.351956320784402</v>
       </c>
       <c r="K21">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,7 +1183,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K22">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,7 +1218,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K23">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,7 +1253,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K24">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,7 +1288,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K25">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,7 +1323,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K26">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,7 +1358,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K27">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,7 +1393,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K28">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,7 +1428,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K29">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,7 +1463,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K30">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,7 +1498,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K31">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,7 +1533,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K32">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,7 +1568,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K33">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,7 +1603,7 @@
         <v>-0.6327450682760405</v>
       </c>
       <c r="K34">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,7 +1638,7 @@
         <v>-0.6327450682760405</v>
       </c>
       <c r="K35">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,7 +1673,7 @@
         <v>-0.6327450682760405</v>
       </c>
       <c r="K36">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,7 +1708,7 @@
         <v>-0.6327450682760405</v>
       </c>
       <c r="K37">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,7 +1743,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K38">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,7 +1778,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K39">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,7 +1813,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K40">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,7 +1848,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K41">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,7 +1883,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K42">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,7 +1918,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K43">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,7 +1953,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K44">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,7 +1988,7 @@
         <v>-0.7293190147108927</v>
       </c>
       <c r="K45">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,7 +2023,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K46">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,7 +2058,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K47">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,7 +2093,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K48">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,7 +2128,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K49">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,7 +2163,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K50">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,7 +2198,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K51">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,7 +2233,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K52">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,7 +2268,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K53">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,7 +2303,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K54">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,7 +2338,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K55">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,7 +2373,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K56">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,7 +2408,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K57">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,7 +2443,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K58">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,7 +2478,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K59">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,7 +2513,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K60">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,7 +2548,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K61">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,7 +2583,7 @@
         <v>-0.7367477798212658</v>
       </c>
       <c r="K62">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,7 +2618,7 @@
         <v>-0.7367477798212658</v>
       </c>
       <c r="K63">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,7 +2653,7 @@
         <v>-0.7367477798212658</v>
       </c>
       <c r="K64">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,7 +2688,7 @@
         <v>-0.7367477798212658</v>
       </c>
       <c r="K65">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,7 +2723,7 @@
         <v>0.2067053891961353</v>
       </c>
       <c r="K66">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,7 +2758,7 @@
         <v>0.2067053891961353</v>
       </c>
       <c r="K67">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,7 +2793,7 @@
         <v>0.2067053891961353</v>
       </c>
       <c r="K68">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,7 +2828,7 @@
         <v>0.2067053891961353</v>
       </c>
       <c r="K69">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,7 +2863,7 @@
         <v>-0.2464492825366322</v>
       </c>
       <c r="K70">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,7 +2898,7 @@
         <v>-0.2464492825366322</v>
       </c>
       <c r="K71">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,7 +2933,7 @@
         <v>-0.2464492825366322</v>
       </c>
       <c r="K72">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,7 +2968,7 @@
         <v>-0.2464492825366322</v>
       </c>
       <c r="K73">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,7 +3003,7 @@
         <v>-0.67731765893828</v>
       </c>
       <c r="K74">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,7 +3038,7 @@
         <v>-0.67731765893828</v>
       </c>
       <c r="K75">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,7 +3073,7 @@
         <v>-0.67731765893828</v>
       </c>
       <c r="K76">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,7 +3108,7 @@
         <v>-0.67731765893828</v>
       </c>
       <c r="K77">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,7 +3143,7 @@
         <v>-0.179590396543273</v>
       </c>
       <c r="K78">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,7 +3178,7 @@
         <v>-0.179590396543273</v>
       </c>
       <c r="K79">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,7 +3213,7 @@
         <v>-0.179590396543273</v>
       </c>
       <c r="K80">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,7 +3248,7 @@
         <v>-0.179590396543273</v>
       </c>
       <c r="K81">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,7 +3283,7 @@
         <v>-0.335594463861111</v>
       </c>
       <c r="K82">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,7 +3318,7 @@
         <v>-0.335594463861111</v>
       </c>
       <c r="K83">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,7 +3353,7 @@
         <v>-0.335594463861111</v>
       </c>
       <c r="K84">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,7 +3388,7 @@
         <v>-0.335594463861111</v>
       </c>
       <c r="K85">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,7 +3423,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K86">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,7 +3458,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K87">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,7 +3493,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K88">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,7 +3528,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K89">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,7 +3563,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K90">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,7 +3598,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K91">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,7 +3633,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K92">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,7 +3668,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K93">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,7 +3703,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K94">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,7 +3738,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K95">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,7 +3773,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K96">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,7 +3808,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K97">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,7 +3843,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K98">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,7 +3878,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K99">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,7 +3913,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K100">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,7 +3948,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K101">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,7 +3983,7 @@
         <v>-0.3504519940818575</v>
       </c>
       <c r="K102">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,7 +4018,7 @@
         <v>-0.3504519940818575</v>
       </c>
       <c r="K103">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,7 +4053,7 @@
         <v>-0.3504519940818575</v>
       </c>
       <c r="K104">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,7 +4088,7 @@
         <v>-0.3504519940818575</v>
       </c>
       <c r="K105">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,7 +4123,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K106">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,7 +4158,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K107">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4193,7 +4193,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K108">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4228,7 +4228,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K109">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,7 +4263,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K110">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4298,7 +4298,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K111">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4333,7 +4333,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K112">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,7 +4368,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K113">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4403,7 +4403,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K114">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4438,7 +4438,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K115">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4473,7 +4473,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K116">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4508,7 +4508,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K117">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4543,7 +4543,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K118">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,7 +4578,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K119">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,7 +4613,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K120">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,7 +4648,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K121">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4683,7 +4683,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K122">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,7 +4718,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K123">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4753,7 +4753,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K124">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,7 +4788,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K125">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,7 +4823,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K126">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4858,7 +4858,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K127">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4893,7 +4893,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K128">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4928,7 +4928,7 @@
         <v>-0.6698888938279067</v>
       </c>
       <c r="K129">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4963,7 +4963,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K130">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4998,7 +4998,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K131">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5033,7 +5033,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K132">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,7 +5068,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K133">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5103,7 +5103,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K134">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5138,7 +5138,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K135">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5173,7 +5173,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K136">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5208,7 +5208,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K137">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5243,7 +5243,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K138">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5278,7 +5278,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K139">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,7 +5313,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K140">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5348,7 +5348,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K141">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5383,7 +5383,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K142">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5418,7 +5418,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K143">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5453,7 +5453,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K144">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5488,7 +5488,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K145">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5523,7 +5523,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K146">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5558,7 +5558,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K147">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5593,7 +5593,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K148">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5628,7 +5628,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K149">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,7 +5663,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K150">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5698,7 +5698,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K151">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,7 +5733,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K152">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5768,7 +5768,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K153">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,7 +5803,7 @@
         <v>-0.5435998869515617</v>
       </c>
       <c r="K154">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5838,7 +5838,7 @@
         <v>-0.5435998869515617</v>
       </c>
       <c r="K155">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5873,7 +5873,7 @@
         <v>-0.5435998869515617</v>
       </c>
       <c r="K156">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5908,7 +5908,7 @@
         <v>-0.5435998869515617</v>
       </c>
       <c r="K157">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,7 +5943,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K158">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5978,7 +5978,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K159">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,7 +6013,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K160">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6048,7 +6048,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K161">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6083,7 +6083,7 @@
         <v>0.786149067805248</v>
       </c>
       <c r="K162">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6118,7 +6118,7 @@
         <v>0.786149067805248</v>
       </c>
       <c r="K163">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6153,7 +6153,7 @@
         <v>0.786149067805248</v>
       </c>
       <c r="K164">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6188,7 +6188,7 @@
         <v>0.786149067805248</v>
       </c>
       <c r="K165">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6223,7 +6223,7 @@
         <v>-0.7738916053731321</v>
       </c>
       <c r="K166">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6258,7 +6258,7 @@
         <v>-0.7738916053731321</v>
       </c>
       <c r="K167">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6293,7 +6293,7 @@
         <v>-0.7738916053731321</v>
       </c>
       <c r="K168">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6328,7 +6328,7 @@
         <v>-0.7738916053731321</v>
       </c>
       <c r="K169">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6363,7 +6363,7 @@
         <v>-0.2241629872055124</v>
       </c>
       <c r="K170">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6398,7 +6398,7 @@
         <v>-0.2241629872055124</v>
       </c>
       <c r="K171">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6433,7 +6433,7 @@
         <v>-0.2241629872055124</v>
       </c>
       <c r="K172">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6468,7 +6468,7 @@
         <v>-0.2241629872055124</v>
       </c>
       <c r="K173">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6503,7 +6503,7 @@
         <v>-0.491598531178949</v>
       </c>
       <c r="K174">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6538,7 +6538,7 @@
         <v>-0.491598531178949</v>
       </c>
       <c r="K175">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6573,7 +6573,7 @@
         <v>-0.491598531178949</v>
       </c>
       <c r="K176">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6608,7 +6608,7 @@
         <v>-0.491598531178949</v>
       </c>
       <c r="K177">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6643,7 +6643,7 @@
         <v>0.2215629194168818</v>
       </c>
       <c r="K178">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6678,7 +6678,7 @@
         <v>0.2215629194168818</v>
       </c>
       <c r="K179">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6713,7 +6713,7 @@
         <v>0.2215629194168818</v>
       </c>
       <c r="K180">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6748,7 +6748,7 @@
         <v>0.2215629194168818</v>
       </c>
       <c r="K181">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6783,7 +6783,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K182">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6818,7 +6818,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K183">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6853,7 +6853,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K184">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6888,7 +6888,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K185">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6923,7 +6923,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K186">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6958,7 +6958,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K187">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6993,7 +6993,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K188">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7028,7 +7028,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K189">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7063,7 +7063,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K190">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7098,7 +7098,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K191">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7133,7 +7133,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K192">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7168,7 +7168,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K193">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7203,7 +7203,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K194">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7238,7 +7238,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K195">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7273,7 +7273,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K196">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7308,7 +7308,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K197">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7343,7 +7343,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K198">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7378,7 +7378,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K199">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7413,7 +7413,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K200">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7448,7 +7448,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K201">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7483,7 +7483,7 @@
         <v>0.6375737655977831</v>
       </c>
       <c r="K202">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7518,7 +7518,7 @@
         <v>0.6375737655977831</v>
       </c>
       <c r="K203">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7553,7 +7553,7 @@
         <v>0.6375737655977831</v>
       </c>
       <c r="K204">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7588,7 +7588,7 @@
         <v>0.6375737655977831</v>
       </c>
       <c r="K205">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7623,7 +7623,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K206">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7658,7 +7658,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K207">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7693,7 +7693,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K208">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7728,7 +7728,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K209">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7763,7 +7763,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K210">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7798,7 +7798,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K211">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7833,7 +7833,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K212">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7868,7 +7868,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K213">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7903,7 +7903,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K214">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7938,7 +7938,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K215">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7973,7 +7973,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K216">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -8008,7 +8008,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K217">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -8043,7 +8043,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K218">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -8078,7 +8078,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K219">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -8113,7 +8113,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K220">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -8148,7 +8148,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K221">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -8183,7 +8183,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K222">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -8218,7 +8218,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K223">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -8253,7 +8253,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K224">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -8288,7 +8288,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K225">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -8323,7 +8323,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K226">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8358,7 +8358,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K227">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8393,7 +8393,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K228">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -8428,7 +8428,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K229">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8463,7 +8463,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K230">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8498,7 +8498,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K231">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8533,7 +8533,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K232">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8568,7 +8568,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K233">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8603,7 +8603,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K234">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8638,7 +8638,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K235">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8673,7 +8673,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K236">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8708,7 +8708,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K237">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8743,7 +8743,7 @@
         <v>-0.6847464240486532</v>
       </c>
       <c r="K238">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8778,7 +8778,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K239">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8813,7 +8813,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K240">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8848,7 +8848,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K241">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8883,7 +8883,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K242">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8918,7 +8918,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K243">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8953,7 +8953,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K244">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8988,7 +8988,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K245">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -9023,7 +9023,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K246">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -9058,7 +9058,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K247">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -9093,7 +9093,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K248">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -9128,7 +9128,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K249">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -9163,7 +9163,7 @@
         <v>-0.2687355778677519</v>
       </c>
       <c r="K250">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -9198,7 +9198,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K251">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -9233,7 +9233,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K252">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -9268,7 +9268,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K253">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -9303,7 +9303,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K254">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -9338,7 +9338,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K255">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -9373,7 +9373,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K256">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -9408,7 +9408,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K257">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -9443,7 +9443,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K258">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -9478,7 +9478,7 @@
         <v>0.384995751845093</v>
       </c>
       <c r="K259">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -9513,7 +9513,7 @@
         <v>0.384995751845093</v>
       </c>
       <c r="K260">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -9548,7 +9548,7 @@
         <v>0.384995751845093</v>
       </c>
       <c r="K261">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -9583,7 +9583,7 @@
         <v>0.384995751845093</v>
       </c>
       <c r="K262">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -9618,7 +9618,7 @@
         <v>-0.4247396451855899</v>
       </c>
       <c r="K263">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -9653,7 +9653,7 @@
         <v>-0.4247396451855899</v>
       </c>
       <c r="K264">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9688,7 +9688,7 @@
         <v>-0.4247396451855899</v>
       </c>
       <c r="K265">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9723,7 +9723,7 @@
         <v>-0.4247396451855899</v>
       </c>
       <c r="K266">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9758,7 +9758,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K267">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9793,7 +9793,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K268">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9828,7 +9828,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K269">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9863,7 +9863,7 @@
         <v>0.1621327985338959</v>
       </c>
       <c r="K270">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9898,7 +9898,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K271">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9933,7 +9933,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K272">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9968,7 +9968,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K273">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -10003,7 +10003,7 @@
         <v>0.07298761720941706</v>
       </c>
       <c r="K274">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -10038,7 +10038,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K275">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -10073,7 +10073,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K276">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -10108,7 +10108,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K277">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -10143,7 +10143,7 @@
         <v>1.677600881050036</v>
       </c>
       <c r="K278">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -10178,7 +10178,7 @@
         <v>4.084520776810965</v>
       </c>
       <c r="K279">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -10213,7 +10213,7 @@
         <v>4.084520776810965</v>
       </c>
       <c r="K280">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -10248,7 +10248,7 @@
         <v>4.084520776810965</v>
       </c>
       <c r="K281">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -10283,7 +10283,7 @@
         <v>4.084520776810965</v>
       </c>
       <c r="K282">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -10318,7 +10318,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K283">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -10353,7 +10353,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K284">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -10388,7 +10388,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K285">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -10423,7 +10423,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K286">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -10458,7 +10458,7 @@
         <v>1.36559274641436</v>
       </c>
       <c r="K287">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -10493,7 +10493,7 @@
         <v>1.36559274641436</v>
       </c>
       <c r="K288">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -10528,7 +10528,7 @@
         <v>1.36559274641436</v>
       </c>
       <c r="K289">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -10563,7 +10563,7 @@
         <v>1.36559274641436</v>
       </c>
       <c r="K290">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -10598,7 +10598,7 @@
         <v>-0.2835931080884984</v>
       </c>
       <c r="K291">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -10633,7 +10633,7 @@
         <v>-0.2835931080884984</v>
       </c>
       <c r="K292">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -10668,7 +10668,7 @@
         <v>-0.2835931080884984</v>
       </c>
       <c r="K293">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10703,7 +10703,7 @@
         <v>-0.2835931080884984</v>
       </c>
       <c r="K294">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10738,7 +10738,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K295">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10773,7 +10773,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K296">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10808,7 +10808,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K297">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10843,7 +10843,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K298">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10878,7 +10878,7 @@
         <v>0.4741409331695719</v>
       </c>
       <c r="K299">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10913,7 +10913,7 @@
         <v>0.4741409331695719</v>
       </c>
       <c r="K300">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10948,7 +10948,7 @@
         <v>0.4741409331695719</v>
       </c>
       <c r="K301">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10983,7 +10983,7 @@
         <v>0.4741409331695719</v>
       </c>
       <c r="K302">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -11018,7 +11018,7 @@
         <v>0.6227162353770367</v>
       </c>
       <c r="K303">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -11053,7 +11053,7 @@
         <v>0.6227162353770367</v>
       </c>
       <c r="K304">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -11088,7 +11088,7 @@
         <v>0.6227162353770367</v>
       </c>
       <c r="K305">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -11123,7 +11123,7 @@
         <v>0.6227162353770367</v>
       </c>
       <c r="K306">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -11158,7 +11158,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K307">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -11193,7 +11193,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K308">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -11228,7 +11228,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K309">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -11263,7 +11263,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K310">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -11298,7 +11298,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K311">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -11333,7 +11333,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K312">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -11368,7 +11368,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K313">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -11403,7 +11403,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K314">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -11438,7 +11438,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K315">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -11473,7 +11473,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K316">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -11508,7 +11508,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K317">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -11543,7 +11543,7 @@
         <v>1.321020155752121</v>
       </c>
       <c r="K318">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -11578,7 +11578,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K319">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -11613,7 +11613,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K320">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -11648,7 +11648,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K321">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -11683,7 +11683,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K322">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -11718,7 +11718,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K323">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -11753,7 +11753,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K324">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -11788,7 +11788,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K325">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -11823,7 +11823,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K326">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11858,7 +11858,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K327">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11893,7 +11893,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K328">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11928,7 +11928,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K329">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11963,7 +11963,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K330">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11998,7 +11998,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K331">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -12033,7 +12033,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K332">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -12068,7 +12068,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K333">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -12103,7 +12103,7 @@
         <v>0.5187135238318114</v>
       </c>
       <c r="K334">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -12138,7 +12138,7 @@
         <v>0.2512779798583748</v>
       </c>
       <c r="K335">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -12173,7 +12173,7 @@
         <v>0.2512779798583748</v>
       </c>
       <c r="K336">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -12208,7 +12208,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K337">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -12243,7 +12243,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K338">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -12278,7 +12278,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K339">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -12313,7 +12313,7 @@
         <v>-0.8184641960353715</v>
       </c>
       <c r="K340">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -12348,7 +12348,7 @@
         <v>-0.707032719379773</v>
       </c>
       <c r="K341">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -12383,7 +12383,7 @@
         <v>-0.707032719379773</v>
       </c>
       <c r="K342">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -12418,7 +12418,7 @@
         <v>-0.707032719379773</v>
       </c>
       <c r="K343">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -12453,7 +12453,7 @@
         <v>-0.707032719379773</v>
       </c>
       <c r="K344">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -12488,7 +12488,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K345">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -12523,7 +12523,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K346">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -12558,7 +12558,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K347">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -12593,7 +12593,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K348">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -12628,7 +12628,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K349">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -12663,7 +12663,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K350">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -12698,7 +12698,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K351">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -12733,7 +12733,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K352">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -12768,7 +12768,7 @@
         <v>0.6672888260392761</v>
       </c>
       <c r="K353">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -12803,7 +12803,7 @@
         <v>0.6672888260392761</v>
       </c>
       <c r="K354">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12838,7 +12838,7 @@
         <v>0.6672888260392761</v>
       </c>
       <c r="K355">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12873,7 +12873,7 @@
         <v>0.6672888260392761</v>
       </c>
       <c r="K356">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12908,7 +12908,7 @@
         <v>-0.2538780476470054</v>
       </c>
       <c r="K357">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12943,7 +12943,7 @@
         <v>-0.2538780476470054</v>
       </c>
       <c r="K358">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12978,7 +12978,7 @@
         <v>-0.2538780476470054</v>
       </c>
       <c r="K359">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -13013,7 +13013,7 @@
         <v>-0.2538780476470054</v>
       </c>
       <c r="K360">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -13048,7 +13048,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K361">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -13083,7 +13083,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K362">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -13118,7 +13118,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K363">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -13153,7 +13153,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K364">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -13188,7 +13188,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K365">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -13223,7 +13223,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K366">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -13258,7 +13258,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K367">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -13293,7 +13293,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K368">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -13328,7 +13328,7 @@
         <v>-0.4618834707374561</v>
       </c>
       <c r="K369">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -13363,7 +13363,7 @@
         <v>-0.4618834707374561</v>
       </c>
       <c r="K370">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -13398,7 +13398,7 @@
         <v>-0.4618834707374561</v>
       </c>
       <c r="K371">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -13433,7 +13433,7 @@
         <v>-0.4618834707374561</v>
       </c>
       <c r="K372">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -13468,7 +13468,7 @@
         <v>0.5632861144940507</v>
       </c>
       <c r="K373">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -13503,7 +13503,7 @@
         <v>0.5632861144940507</v>
       </c>
       <c r="K374">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -13538,7 +13538,7 @@
         <v>0.5632861144940507</v>
       </c>
       <c r="K375">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -13573,7 +13573,7 @@
         <v>0.5632861144940507</v>
       </c>
       <c r="K376">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -13608,7 +13608,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K377">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -13643,7 +13643,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K378">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -13678,7 +13678,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K379">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -13713,7 +13713,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K380">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -13748,7 +13748,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K381">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -13783,7 +13783,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K382">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -13818,7 +13818,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K383">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -13853,7 +13853,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K384">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -13888,7 +13888,7 @@
         <v>0.8307216584674874</v>
       </c>
       <c r="K385">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -13923,7 +13923,7 @@
         <v>0.8307216584674874</v>
       </c>
       <c r="K386">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -13958,7 +13958,7 @@
         <v>0.8307216584674874</v>
       </c>
       <c r="K387">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -13993,7 +13993,7 @@
         <v>0.8307216584674874</v>
       </c>
       <c r="K388">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -14028,7 +14028,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K389">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -14063,7 +14063,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K390">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -14098,7 +14098,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K391">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -14133,7 +14133,7 @@
         <v>-0.01615756411506179</v>
       </c>
       <c r="K392">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -14168,7 +14168,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K393">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -14203,7 +14203,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K394">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -14238,7 +14238,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K395">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -14273,7 +14273,7 @@
         <v>0.6970038864807691</v>
       </c>
       <c r="K396">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -14308,7 +14308,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K397">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -14343,7 +14343,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K398">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -14378,7 +14378,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K399">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -14413,7 +14413,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K400">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -14448,7 +14448,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K401">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -14483,7 +14483,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K402">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -14518,7 +14518,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K403">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -14553,7 +14553,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K404">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -14588,7 +14588,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K405">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -14623,7 +14623,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K406">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -14658,7 +14658,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K407">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -14693,7 +14693,7 @@
         <v>-0.4841697660685758</v>
       </c>
       <c r="K408">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -14728,7 +14728,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K409">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -14763,7 +14763,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K410">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -14798,7 +14798,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K411">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -14833,7 +14833,7 @@
         <v>-0.6401738333864138</v>
       </c>
       <c r="K412">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -14868,7 +14868,7 @@
         <v>0.01355749632643116</v>
       </c>
       <c r="K413">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -14903,7 +14903,7 @@
         <v>0.01355749632643116</v>
       </c>
       <c r="K414">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -14938,7 +14938,7 @@
         <v>0.01355749632643116</v>
       </c>
       <c r="K415">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -14973,7 +14973,7 @@
         <v>0.01355749632643116</v>
       </c>
       <c r="K416">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -15008,7 +15008,7 @@
         <v>-0.5287423567308152</v>
       </c>
       <c r="K417">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -15043,7 +15043,7 @@
         <v>-0.5287423567308152</v>
       </c>
       <c r="K418">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -15078,7 +15078,7 @@
         <v>-0.5287423567308152</v>
       </c>
       <c r="K419">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -15113,7 +15113,7 @@
         <v>-0.5287423567308152</v>
       </c>
       <c r="K420">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -15148,7 +15148,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K421">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -15183,7 +15183,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K422">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -15218,7 +15218,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K423">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -15253,7 +15253,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K424">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -15288,7 +15288,7 @@
         <v>0.02841502654717764</v>
       </c>
       <c r="K425">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -15323,7 +15323,7 @@
         <v>0.02841502654717764</v>
       </c>
       <c r="K426">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -15358,7 +15358,7 @@
         <v>0.02841502654717764</v>
       </c>
       <c r="K427">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -15393,7 +15393,7 @@
         <v>0.02841502654717764</v>
       </c>
       <c r="K428">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -15428,7 +15428,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K429">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -15463,7 +15463,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K430">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -15498,7 +15498,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K431">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -15533,7 +15533,7 @@
         <v>-0.6550313636071603</v>
       </c>
       <c r="K432">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -15568,7 +15568,7 @@
         <v>1.885606304140487</v>
       </c>
       <c r="K433">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -15603,7 +15603,7 @@
         <v>1.885606304140487</v>
       </c>
       <c r="K434">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -15638,7 +15638,7 @@
         <v>1.885606304140487</v>
       </c>
       <c r="K435">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -15673,7 +15673,7 @@
         <v>1.885606304140487</v>
       </c>
       <c r="K436">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -15708,7 +15708,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K437">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -15743,7 +15743,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K438">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -15778,7 +15778,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K439">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -15813,7 +15813,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K440">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -15848,7 +15848,7 @@
         <v>-0.7887491355938785</v>
       </c>
       <c r="K441">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -15883,7 +15883,7 @@
         <v>-0.7887491355938785</v>
       </c>
       <c r="K442">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -15918,7 +15918,7 @@
         <v>-0.7887491355938785</v>
       </c>
       <c r="K443">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -15953,7 +15953,7 @@
         <v>-0.7887491355938785</v>
       </c>
       <c r="K444">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -15988,7 +15988,7 @@
         <v>-0.4024533498544702</v>
       </c>
       <c r="K445">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -16023,7 +16023,7 @@
         <v>-0.4024533498544702</v>
       </c>
       <c r="K446">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -16058,7 +16058,7 @@
         <v>-0.4024533498544702</v>
       </c>
       <c r="K447">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -16093,7 +16093,7 @@
         <v>-0.4024533498544702</v>
       </c>
       <c r="K448">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -16128,7 +16128,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K449">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -16163,7 +16163,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K450">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -16198,7 +16198,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K451">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -16233,7 +16233,7 @@
         <v>-0.551028652061935</v>
       </c>
       <c r="K452">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -16268,7 +16268,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K453">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -16303,7 +16303,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K454">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -16338,7 +16338,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K455">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -16373,7 +16373,7 @@
         <v>-0.4767410009582025</v>
       </c>
       <c r="K456">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -16408,7 +16408,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K457">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -16443,7 +16443,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K458">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -16478,7 +16478,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K459">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -16513,7 +16513,7 @@
         <v>-0.4173108800752167</v>
       </c>
       <c r="K460">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -16548,7 +16548,7 @@
         <v>-0.4321684102959631</v>
       </c>
       <c r="K461">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -16583,7 +16583,7 @@
         <v>-0.4321684102959631</v>
       </c>
       <c r="K462">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -16618,7 +16618,7 @@
         <v>-0.4321684102959631</v>
       </c>
       <c r="K463">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -16653,7 +16653,7 @@
         <v>-0.4321684102959631</v>
       </c>
       <c r="K464">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -16688,7 +16688,7 @@
         <v>-0.6104587729449208</v>
       </c>
       <c r="K465">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -16723,7 +16723,7 @@
         <v>-0.6104587729449208</v>
       </c>
       <c r="K466">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -16758,7 +16758,7 @@
         <v>-0.6104587729449208</v>
       </c>
       <c r="K467">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -16793,7 +16793,7 @@
         <v>-0.6104587729449208</v>
       </c>
       <c r="K468">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -16828,7 +16828,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K469">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -16863,7 +16863,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K470">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -16898,7 +16898,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K471">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -16933,7 +16933,7 @@
         <v>1.053584611778684</v>
       </c>
       <c r="K472">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -16968,7 +16968,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K473">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -17003,7 +17003,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K474">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -17038,7 +17038,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K475">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -17073,7 +17073,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K476">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -17108,7 +17108,7 @@
         <v>1.766746062374515</v>
       </c>
       <c r="K477">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -17143,7 +17143,7 @@
         <v>1.766746062374515</v>
       </c>
       <c r="K478">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -17178,7 +17178,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K479">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -17213,7 +17213,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K480">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -17248,7 +17248,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K481">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -17283,7 +17283,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K482">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -17318,7 +17318,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K483">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -17353,7 +17353,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K484">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:11">
@@ -17388,7 +17388,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K485">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -17423,7 +17423,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K486">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -17458,7 +17458,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K487">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -17493,7 +17493,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K488">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -17528,7 +17528,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K489">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -17563,7 +17563,7 @@
         <v>-0.7441765449316391</v>
       </c>
       <c r="K490">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -17598,7 +17598,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K491">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -17633,7 +17633,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K492">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -17668,7 +17668,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K493">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -17703,7 +17703,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K494">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -17738,7 +17738,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K495">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -17773,7 +17773,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K496">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -17808,7 +17808,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K497">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -17843,7 +17843,7 @@
         <v>-0.3578807591922307</v>
       </c>
       <c r="K498">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -17878,7 +17878,7 @@
         <v>0.3404231611828537</v>
       </c>
       <c r="K499">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -17913,7 +17913,7 @@
         <v>0.3404231611828537</v>
       </c>
       <c r="K500">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -17948,7 +17948,7 @@
         <v>0.3404231611828537</v>
       </c>
       <c r="K501">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:11">
@@ -17983,7 +17983,7 @@
         <v>0.3404231611828537</v>
       </c>
       <c r="K502">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:11">
@@ -18018,7 +18018,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K503">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:11">
@@ -18053,7 +18053,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K504">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:11">
@@ -18088,7 +18088,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K505">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:11">
@@ -18123,7 +18123,7 @@
         <v>-0.7590340751523856</v>
       </c>
       <c r="K506">
-        <v>-2.051956704170308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:11">
@@ -18158,7 +18158,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K507">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:11">
@@ -18193,7 +18193,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K508">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:11">
@@ -18228,7 +18228,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K509">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:11">
@@ -18263,7 +18263,7 @@
         <v>-0.1944479267640195</v>
       </c>
       <c r="K510">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:11">
@@ -18298,7 +18298,7 @@
         <v>3.103923782241698</v>
       </c>
       <c r="K511">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:11">
@@ -18333,7 +18333,7 @@
         <v>3.103923782241698</v>
       </c>
       <c r="K512">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:11">
@@ -18368,7 +18368,7 @@
         <v>3.103923782241698</v>
       </c>
       <c r="K513">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:11">
@@ -18403,7 +18403,7 @@
         <v>3.103923782241698</v>
       </c>
       <c r="K514">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:11">
@@ -18438,7 +18438,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K515">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:11">
@@ -18473,7 +18473,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K516">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:11">
@@ -18508,7 +18508,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K517">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:11">
@@ -18543,7 +18543,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K518">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:11">
@@ -18578,7 +18578,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K519">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:11">
@@ -18613,7 +18613,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K520">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:11">
@@ -18648,7 +18648,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K521">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:11">
@@ -18683,7 +18683,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K522">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:11">
@@ -18718,7 +18718,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K523">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:11">
@@ -18753,7 +18753,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K524">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:11">
@@ -18788,7 +18788,7 @@
         <v>0.1175602078716565</v>
       </c>
       <c r="K525">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:11">
@@ -18823,7 +18823,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K526">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:11">
@@ -18858,7 +18858,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K527">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:11">
@@ -18893,7 +18893,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K528">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:11">
@@ -18928,7 +18928,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K529">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:11">
@@ -18963,7 +18963,7 @@
         <v>-0.2984506383092448</v>
       </c>
       <c r="K530">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:11">
@@ -18998,7 +18998,7 @@
         <v>-0.2984506383092448</v>
       </c>
       <c r="K531">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:11">
@@ -19033,7 +19033,7 @@
         <v>-0.2984506383092448</v>
       </c>
       <c r="K532">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:11">
@@ -19068,7 +19068,7 @@
         <v>-0.2984506383092448</v>
       </c>
       <c r="K533">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:11">
@@ -19103,7 +19103,7 @@
         <v>-0.3133081685299913</v>
       </c>
       <c r="K534">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:11">
@@ -19138,7 +19138,7 @@
         <v>-0.3133081685299913</v>
       </c>
       <c r="K535">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:11">
@@ -19173,7 +19173,7 @@
         <v>-0.3133081685299913</v>
       </c>
       <c r="K536">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:11">
@@ -19208,7 +19208,7 @@
         <v>-0.3133081685299913</v>
       </c>
       <c r="K537">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:11">
@@ -19243,7 +19243,7 @@
         <v>0.006128731216057922</v>
       </c>
       <c r="K538">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:11">
@@ -19278,7 +19278,7 @@
         <v>0.006128731216057922</v>
       </c>
       <c r="K539">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:11">
@@ -19313,7 +19313,7 @@
         <v>0.006128731216057922</v>
       </c>
       <c r="K540">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:11">
@@ -19348,7 +19348,7 @@
         <v>0.006128731216057922</v>
       </c>
       <c r="K541">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:11">
@@ -19383,7 +19383,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K542">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:11">
@@ -19418,7 +19418,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K543">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:11">
@@ -19453,7 +19453,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K544">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:11">
@@ -19488,7 +19488,7 @@
         <v>-0.3727382894129772</v>
       </c>
       <c r="K545">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:11">
@@ -19523,7 +19523,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K546">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:11">
@@ -19558,7 +19558,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K547">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:11">
@@ -19593,7 +19593,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K548">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:11">
@@ -19628,7 +19628,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K549">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:11">
@@ -19663,7 +19663,7 @@
         <v>-0.3801670545233505</v>
       </c>
       <c r="K550">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:11">
@@ -19698,7 +19698,7 @@
         <v>-0.3801670545233505</v>
       </c>
       <c r="K551">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:11">
@@ -19733,7 +19733,7 @@
         <v>-0.3801670545233505</v>
       </c>
       <c r="K552">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:11">
@@ -19768,7 +19768,7 @@
         <v>-0.3801670545233505</v>
       </c>
       <c r="K553">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:11">
@@ -19803,7 +19803,7 @@
         <v>-0.4990272962893222</v>
       </c>
       <c r="K554">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:11">
@@ -19838,7 +19838,7 @@
         <v>-0.4990272962893222</v>
       </c>
       <c r="K555">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:11">
@@ -19873,7 +19873,7 @@
         <v>-0.4990272962893222</v>
       </c>
       <c r="K556">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:11">
@@ -19908,7 +19908,7 @@
         <v>-0.4990272962893222</v>
       </c>
       <c r="K557">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:11">
@@ -19943,7 +19943,7 @@
         <v>-0.6624601287175335</v>
       </c>
       <c r="K558">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:11">
@@ -19978,7 +19978,7 @@
         <v>-0.6624601287175335</v>
       </c>
       <c r="K559">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:11">
@@ -20013,7 +20013,7 @@
         <v>-0.6624601287175335</v>
       </c>
       <c r="K560">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:11">
@@ -20048,7 +20048,7 @@
         <v>-0.6624601287175335</v>
       </c>
       <c r="K561">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:11">
@@ -20083,7 +20083,7 @@
         <v>-0.5658861822826814</v>
       </c>
       <c r="K562">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:11">
@@ -20118,7 +20118,7 @@
         <v>-0.5658861822826814</v>
       </c>
       <c r="K563">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:11">
@@ -20153,7 +20153,7 @@
         <v>-0.5658861822826814</v>
       </c>
       <c r="K564">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:11">
@@ -20188,7 +20188,7 @@
         <v>-0.5658861822826814</v>
       </c>
       <c r="K565">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:11">
@@ -20223,7 +20223,7 @@
         <v>3.148496372903938</v>
       </c>
       <c r="K566">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:11">
@@ -20258,7 +20258,7 @@
         <v>3.148496372903938</v>
       </c>
       <c r="K567">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:11">
@@ -20293,7 +20293,7 @@
         <v>3.148496372903938</v>
       </c>
       <c r="K568">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:11">
@@ -20328,7 +20328,7 @@
         <v>3.148496372903938</v>
       </c>
       <c r="K569">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:11">
@@ -20363,7 +20363,7 @@
         <v>-0.001300033894315317</v>
       </c>
       <c r="K570">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:11">
@@ -20398,7 +20398,7 @@
         <v>-0.001300033894315317</v>
       </c>
       <c r="K571">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:11">
@@ -20433,7 +20433,7 @@
         <v>-0.001300033894315317</v>
       </c>
       <c r="K572">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:11">
@@ -20468,7 +20468,7 @@
         <v>-0.001300033894315317</v>
       </c>
       <c r="K573">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:11">
@@ -20503,7 +20503,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K574">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:11">
@@ -20538,7 +20538,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K575">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:11">
@@ -20573,7 +20573,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K576">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:11">
@@ -20608,7 +20608,7 @@
         <v>-0.5064560613996955</v>
       </c>
       <c r="K577">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:11">
@@ -20643,7 +20643,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K578">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:11">
@@ -20678,7 +20678,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K579">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:11">
@@ -20713,7 +20713,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K580">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:11">
@@ -20748,7 +20748,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K581">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:11">
@@ -20783,7 +20783,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K582">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:11">
@@ -20818,7 +20818,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K583">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:11">
@@ -20853,7 +20853,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K584">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:11">
@@ -20888,7 +20888,7 @@
         <v>-0.5733149473930547</v>
       </c>
       <c r="K585">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:11">
@@ -20923,7 +20923,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K586">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:11">
@@ -20958,7 +20958,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K587">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:11">
@@ -20993,7 +20993,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K588">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:11">
@@ -21028,7 +21028,7 @@
         <v>-0.2390205174262589</v>
       </c>
       <c r="K589">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:11">
@@ -21063,7 +21063,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K590">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:11">
@@ -21098,7 +21098,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K591">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:11">
@@ -21133,7 +21133,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K592">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:11">
@@ -21168,7 +21168,7 @@
         <v>-0.6253163031656673</v>
       </c>
       <c r="K593">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:11">
@@ -21203,7 +21203,7 @@
         <v>-0.6996039542693997</v>
       </c>
       <c r="K594">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:11">
@@ -21238,7 +21238,7 @@
         <v>-0.6996039542693997</v>
       </c>
       <c r="K595">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:11">
@@ -21273,7 +21273,7 @@
         <v>-0.6996039542693997</v>
       </c>
       <c r="K596">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:11">
@@ -21308,7 +21308,7 @@
         <v>-0.6996039542693997</v>
       </c>
       <c r="K597">
-        <v>-0.6839855680567695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:11">
@@ -21343,7 +21343,7 @@
         <v>6.669731035220853</v>
       </c>
       <c r="K598">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:11">
@@ -21378,7 +21378,7 @@
         <v>6.669731035220853</v>
       </c>
       <c r="K599">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:11">
@@ -21413,7 +21413,7 @@
         <v>6.669731035220853</v>
       </c>
       <c r="K600">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:11">
@@ -21448,7 +21448,7 @@
         <v>6.669731035220853</v>
       </c>
       <c r="K601">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:11">
@@ -21483,7 +21483,7 @@
         <v>-0.09044521521879417</v>
       </c>
       <c r="K602">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:11">
@@ -21518,7 +21518,7 @@
         <v>-0.09044521521879417</v>
       </c>
       <c r="K603">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:11">
@@ -21553,7 +21553,7 @@
         <v>-0.09044521521879417</v>
       </c>
       <c r="K604">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:11">
@@ -21588,7 +21588,7 @@
         <v>-0.09044521521879417</v>
       </c>
       <c r="K605">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:11">
@@ -21623,7 +21623,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K606">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:11">
@@ -21658,7 +21658,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K607">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:11">
@@ -21693,7 +21693,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K608">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:11">
@@ -21728,7 +21728,7 @@
         <v>-0.06073015477730122</v>
       </c>
       <c r="K609">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:11">
@@ -21763,7 +21763,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K610">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:11">
@@ -21798,7 +21798,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K611">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:11">
@@ -21833,7 +21833,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K612">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:11">
@@ -21868,7 +21868,7 @@
         <v>0.4295683425073325</v>
       </c>
       <c r="K613">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:11">
@@ -21903,7 +21903,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K614">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:11">
@@ -21938,7 +21938,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K615">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:11">
@@ -21973,7 +21973,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K616">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:11">
@@ -22008,7 +22008,7 @@
         <v>1.231874974427642</v>
       </c>
       <c r="K617">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:11">
@@ -22043,7 +22043,7 @@
         <v>-0.3430232289714842</v>
       </c>
       <c r="K618">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:11">
@@ -22078,7 +22078,7 @@
         <v>-0.3430232289714842</v>
       </c>
       <c r="K619">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:11">
@@ -22113,7 +22113,7 @@
         <v>-0.3430232289714842</v>
       </c>
       <c r="K620">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:11">
@@ -22148,7 +22148,7 @@
         <v>-0.3430232289714842</v>
       </c>
       <c r="K621">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:11">
@@ -22183,7 +22183,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K622">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:11">
@@ -22218,7 +22218,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K623">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:11">
@@ -22253,7 +22253,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K624">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:11">
@@ -22288,7 +22288,7 @@
         <v>-0.1498753361017801</v>
       </c>
       <c r="K625">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:11">
@@ -22323,7 +22323,7 @@
         <v>-0.4693122358478293</v>
       </c>
       <c r="K626">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:11">
@@ -22358,7 +22358,7 @@
         <v>-0.4693122358478293</v>
       </c>
       <c r="K627">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:11">
@@ -22393,7 +22393,7 @@
         <v>-0.4693122358478293</v>
       </c>
       <c r="K628">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:11">
@@ -22428,7 +22428,7 @@
         <v>-0.4693122358478293</v>
       </c>
       <c r="K629">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:11">
@@ -22463,7 +22463,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K630">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:11">
@@ -22498,7 +22498,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K631">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:11">
@@ -22533,7 +22533,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K632">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:11">
@@ -22568,7 +22568,7 @@
         <v>-0.3281656987507378</v>
       </c>
       <c r="K633">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:11">
@@ -22603,7 +22603,7 @@
         <v>-0.2910218731988716</v>
       </c>
       <c r="K634">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:11">
@@ -22638,7 +22638,7 @@
         <v>-0.2910218731988716</v>
       </c>
       <c r="K635">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:11">
@@ -22673,7 +22673,7 @@
         <v>-0.2910218731988716</v>
       </c>
       <c r="K636">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:11">
@@ -22708,7 +22708,7 @@
         <v>-0.2910218731988716</v>
       </c>
       <c r="K637">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:11">
@@ -22743,7 +22743,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K638">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:11">
@@ -22778,7 +22778,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K639">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:11">
@@ -22813,7 +22813,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K640">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:11">
@@ -22848,7 +22848,7 @@
         <v>-0.521313591620442</v>
       </c>
       <c r="K641">
-        <v>0.6839855680567695</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
